--- a/biology/Virologie/Simplexvirus/Simplexvirus.xlsx
+++ b/biology/Virologie/Simplexvirus/Simplexvirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Simplexvirus est un genre de virus de la famille des Herpesviridae de l'ordre des Herpesvirales. Il contient les espèces HHV-1 et HHV-2 plus connues sous les noms de virus de HSV-1 et HSV-2 ou virus de l'Herpès.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Simplexvirus fait partie de la sous-famille des Alphaherpesvirinae. L'homme et les mammifères sont ses hôtes naturels. Les maladies associées à ce genre sont les vésicules cutanées ou les ulcères des muqueuses, rarement l'encéphalite et la méningite[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Simplexvirus fait partie de la sous-famille des Alphaherpesvirinae. L'homme et les mammifères sont ses hôtes naturels. Les maladies associées à ce genre sont les vésicules cutanées ou les ulcères des muqueuses, rarement l'encéphalite et la méningite,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virus du genre  Simplexvirus sont enveloppés, avec des géométries icosaédrique[4], sphérique à pléomorphe, et ronde, et une symétrie T=16. Le diamètre est d'environ 150-200 nm. Les génomes sont linéaires et non segmentés, d'une longueur d'environ 152 kb[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virus du genre  Simplexvirus sont enveloppés, avec des géométries icosaédrique, sphérique à pléomorphe, et ronde, et une symétrie T=16. Le diamètre est d'environ 150-200 nm. Les génomes sont linéaires et non segmentés, d'une longueur d'environ 152 kb.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Cycle viral</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réplication virale est nucléaire, et est lysogène. L'entrée dans la cellule hôte se fait par l'attachement des protéines virales gB, gC, gD et gH aux récepteurs de l'hôte, ce qui entraîne l'endocytose. La réplication suit le modèle de réplication bidirectionnelle de l'ADNdb. La transcription s'effectue en prenant modèle sur l'ADN, avec un mécanisme d'épissage alternatif. La traduction a lieu par balayage fuyant. Le virus sort de la cellule hôte par évacuation nucléaire, bourgeonnement et transport viral microtubulaire vers l'extérieur. L'homme et les mammifères sont les hôtes naturels. Les voies de transmission sont le sexe, le contact et la salive[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réplication virale est nucléaire, et est lysogène. L'entrée dans la cellule hôte se fait par l'attachement des protéines virales gB, gC, gD et gH aux récepteurs de l'hôte, ce qui entraîne l'endocytose. La réplication suit le modèle de réplication bidirectionnelle de l'ADNdb. La transcription s'effectue en prenant modèle sur l'ADN, avec un mécanisme d'épissage alternatif. La traduction a lieu par balayage fuyant. Le virus sort de la cellule hôte par évacuation nucléaire, bourgeonnement et transport viral microtubulaire vers l'extérieur. L'homme et les mammifères sont les hôtes naturels. Les voies de transmission sont le sexe, le contact et la salive.
 </t>
         </is>
       </c>
@@ -606,10 +624,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Étymologie
-L'étymologie du nom de genre Simplexvirus vient du latin Simplex qui signifie simple et fait référence à l'espèce type Herpes Simplex virus[2].
-Liste des espèces
-Dans sa dernière version de la taxonomie des virus, l'ICTV compte 15 espèces dans le genre Simplexvirus.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre Simplexvirus vient du latin Simplex qui signifie simple et fait référence à l'espèce type Herpes Simplex virus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Simplexvirus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simplexvirus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dans sa dernière version de la taxonomie des virus, l'ICTV compte 15 espèces dans le genre Simplexvirus.
 Ateline alphaherpesvirus 1
 Bovine alphaherpesvirus 2
 Cercopithecine alphaherpesvirus 2
